--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charles\Documents\UiPath\DUPF1\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charles\Documents\UiPath\KNUDU\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECFCFDB-6A03-4CE8-915C-3D23A6FBEB12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02F7E2A-7A76-48CB-891A-876C435E7AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8468" yWindow="3060" windowWidth="28800" windowHeight="15503" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9450" yWindow="2790" windowWidth="28800" windowHeight="15503" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="256">
   <si>
     <t>Name</t>
   </si>
@@ -805,6 +805,17 @@
   </si>
   <si>
     <t>StorageBucketName</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>AzureInvoiceFormEndpoint</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://charels-azure-invoice-form.cognitiveservices.azure.com/</t>
+  </si>
+  <si>
+    <t>AzureFormApiKey</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1211,8 +1222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1397,7 +1408,14 @@
         <v>240</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B15" t="s">
+        <v>254</v>
+      </c>
+    </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
@@ -3966,8 +3984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -4152,7 +4170,14 @@
         <v>204</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="15" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
     <row r="16" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charles\Documents\UiPath\KNUDU\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02F7E2A-7A76-48CB-891A-876C435E7AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD459B3-1273-485D-B9D3-A9C5FF216CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9450" yWindow="2790" windowWidth="28800" windowHeight="15503" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6517" yWindow="2737" windowWidth="28800" windowHeight="15503" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -400,9 +400,6 @@
     <t>Getting file write permission</t>
   </si>
   <si>
-    <t>https://du.uipath.com/ie/invoices</t>
-  </si>
-  <si>
     <t>LogMessage_InvoicePostProcessing</t>
   </si>
   <si>
@@ -816,6 +813,10 @@
   </si>
   <si>
     <t>AzureFormApiKey</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://du.uipath.com/ie/invoices</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -894,7 +895,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -905,6 +906,7 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1222,8 +1224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1006"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1304,7 +1306,7 @@
         <v>109</v>
       </c>
       <c r="C3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1379,8 +1381,8 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
-      <c r="B12" t="s">
-        <v>121</v>
+      <c r="B12" s="6" t="s">
+        <v>255</v>
       </c>
       <c r="C12" t="s">
         <v>89</v>
@@ -1399,66 +1401,66 @@
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B15" t="s">
         <v>253</v>
-      </c>
-      <c r="B15" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>178</v>
-      </c>
       <c r="C20" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1468,13 +1470,13 @@
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B22">
         <v>0.5</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1482,13 +1484,13 @@
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
+        <v>231</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" t="s">
         <v>233</v>
-      </c>
-      <c r="C24" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1500,7 +1502,7 @@
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1508,7 +1510,7 @@
         <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1517,7 +1519,7 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1525,7 +1527,7 @@
         <v>113</v>
       </c>
       <c r="C29" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1533,10 +1535,10 @@
         <v>77</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C30" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1544,7 +1546,7 @@
         <v>78</v>
       </c>
       <c r="C31" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2523,8 +2525,11 @@
     <row r="1006" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B12" r:id="rId1" xr:uid="{F56A5C88-A2EE-4B55-9362-5F47B9EADE12}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2708,7 +2713,7 @@
         <v>75</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -2724,7 +2729,7 @@
         <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -2732,7 +2737,7 @@
         <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -2748,7 +2753,7 @@
         <v>47</v>
       </c>
       <c r="B23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -2788,7 +2793,7 @@
         <v>76</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -2804,7 +2809,7 @@
         <v>58</v>
       </c>
       <c r="B30" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -2820,7 +2825,7 @@
         <v>59</v>
       </c>
       <c r="B32" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -2849,18 +2854,18 @@
     </row>
     <row r="36" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2916,18 +2921,18 @@
     </row>
     <row r="47" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
+        <v>227</v>
+      </c>
+      <c r="B47" t="s">
         <v>228</v>
-      </c>
-      <c r="B47" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
+        <v>229</v>
+      </c>
+      <c r="B48" t="s">
         <v>230</v>
-      </c>
-      <c r="B48" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -2956,10 +2961,10 @@
     </row>
     <row r="52" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
+        <v>234</v>
+      </c>
+      <c r="B52" t="s">
         <v>235</v>
-      </c>
-      <c r="B52" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2976,7 +2981,7 @@
         <v>100</v>
       </c>
       <c r="B55" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2985,7 +2990,7 @@
         <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -3010,7 +3015,7 @@
         <v>31</v>
       </c>
       <c r="B61" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -3984,7 +3989,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -4038,7 +4043,7 @@
         <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D2" t="s">
         <v>38</v>
@@ -4046,46 +4051,46 @@
     </row>
     <row r="3" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -4098,10 +4103,10 @@
         <v>35</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -4109,21 +4114,21 @@
         <v>36</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -4131,10 +4136,10 @@
         <v>113</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -4142,10 +4147,10 @@
         <v>77</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -4153,29 +4158,29 @@
         <v>78</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
+        <v>202</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -5199,142 +5204,142 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" t="s">
         <v>122</v>
-      </c>
-      <c r="B3" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" t="s">
         <v>124</v>
-      </c>
-      <c r="B4" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" t="s">
         <v>126</v>
-      </c>
-      <c r="B5" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" t="s">
         <v>128</v>
-      </c>
-      <c r="B6" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" t="s">
         <v>130</v>
-      </c>
-      <c r="B7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" t="s">
         <v>132</v>
-      </c>
-      <c r="B8" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" t="s">
         <v>134</v>
-      </c>
-      <c r="B9" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B10" t="s">
         <v>136</v>
-      </c>
-      <c r="B10" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" t="s">
         <v>138</v>
-      </c>
-      <c r="B11" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" t="s">
         <v>140</v>
-      </c>
-      <c r="B13" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
+        <v>141</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C15" t="s">
         <v>142</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C15" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
+        <v>143</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C16" t="s">
         <v>144</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C16" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
+        <v>145</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C17" t="s">
         <v>146</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C17" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
+        <v>147</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C18" t="s">
         <v>148</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C18" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
+        <v>149</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C19" t="s">
         <v>150</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C19" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B21">
         <v>85</v>
@@ -5342,7 +5347,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B22">
         <v>50</v>
@@ -5350,7 +5355,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B23">
         <v>85</v>
@@ -5358,7 +5363,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B24">
         <v>85</v>
@@ -5366,7 +5371,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B25">
         <v>50</v>
@@ -5408,118 +5413,118 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B3" t="s">
         <v>206</v>
-      </c>
-      <c r="B3" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B8" t="s">
         <v>212</v>
-      </c>
-      <c r="B8" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
+        <v>214</v>
+      </c>
+      <c r="B12" t="s">
         <v>215</v>
       </c>
-      <c r="B12" t="s">
-        <v>216</v>
-      </c>
       <c r="C12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
+        <v>216</v>
+      </c>
+      <c r="B13" t="s">
         <v>217</v>
       </c>
-      <c r="B13" t="s">
-        <v>218</v>
-      </c>
       <c r="C13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
+        <v>218</v>
+      </c>
+      <c r="B14" t="s">
         <v>219</v>
       </c>
-      <c r="B14" t="s">
-        <v>220</v>
-      </c>
       <c r="C14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
+        <v>220</v>
+      </c>
+      <c r="B15" t="s">
         <v>221</v>
       </c>
-      <c r="B15" t="s">
-        <v>222</v>
-      </c>
       <c r="C15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
+        <v>222</v>
+      </c>
+      <c r="B16" t="s">
         <v>223</v>
       </c>
-      <c r="B16" t="s">
-        <v>224</v>
-      </c>
       <c r="C16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B18">
         <v>50</v>
@@ -5527,7 +5532,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B19">
         <v>85</v>
@@ -5535,7 +5540,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B20">
         <v>50</v>
